--- a/ny/data/test/assets/VLMock.xlsx
+++ b/ny/data/test/assets/VLMock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nixVM\Documents\ahk\p6_data\data\test\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nixVM\Documents\ahk\p6_data\ny\data\test\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBCBF1F3-4604-4A5A-ABBA-68F33FF3AD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFD624-874F-4862-8DA4-7E2C5963820E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7DE5B6D-17B1-4BBB-8342-C7DA09B36074}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="96">
   <si>
     <t>24-2267</t>
   </si>
@@ -297,9 +297,6 @@
     <t>Vognmand 2 ApS</t>
   </si>
   <si>
-    <t>ChfKontaktNummer</t>
-  </si>
-  <si>
     <t>3GVEL</t>
   </si>
   <si>
@@ -319,6 +316,15 @@
   </si>
   <si>
     <t>FV8</t>
+  </si>
+  <si>
+    <t>KørerIkkeTransportTyper</t>
+  </si>
+  <si>
+    <t>UndtagneTransportTyper</t>
+  </si>
+  <si>
+    <t>ChfKontaktnummer</t>
   </si>
 </sst>
 </file>
@@ -735,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2422EC17-15C8-4726-B31A-3667559F39F4}">
   <dimension ref="A1:AV3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AW3" sqref="AW3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -803,7 +809,7 @@
         <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -845,64 +851,64 @@
         <v>35</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:48">
@@ -919,10 +925,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>82</v>
@@ -949,10 +955,10 @@
         <v>70112220</v>
       </c>
       <c r="O2" s="2">
-        <v>1</v>
+        <v>70112210</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="2">
         <v>31400</v>
@@ -1053,7 +1059,7 @@
     </row>
     <row r="3" spans="1:48">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2">
         <v>31401</v>
@@ -1065,10 +1071,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>83</v>
@@ -1095,7 +1101,7 @@
         <v>70112221</v>
       </c>
       <c r="O3" s="2">
-        <v>2</v>
+        <v>70112211</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>11</v>
@@ -1107,7 +1113,7 @@
         <v>31401</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>28</v>
